--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2557513.444323753</v>
+        <v>2555015.193002542</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673421</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>195.2590144254308</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,7 +1427,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>196.8486114728729</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>307.2654071077711</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1661,13 +1661,13 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>132.1104019508449</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1695,7 +1695,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G15" t="n">
         <v>134.9994691657081</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773446</v>
       </c>
       <c r="C17" t="n">
-        <v>224.9230016973039</v>
+        <v>270.8701076848715</v>
       </c>
       <c r="D17" t="n">
         <v>260.280257534547</v>
       </c>
       <c r="E17" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861258</v>
       </c>
       <c r="F17" t="n">
         <v>312.4732616555755</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673175</v>
+        <v>270.5718355797507</v>
       </c>
       <c r="H17" t="n">
         <v>200.2049803011845</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770203995</v>
+        <v>14.78497770203985</v>
       </c>
       <c r="T17" t="n">
         <v>109.5151860534842</v>
       </c>
       <c r="U17" t="n">
-        <v>156.5923878727661</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V17" t="n">
-        <v>233.349474383999</v>
+        <v>233.3494743839989</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8381846312771</v>
+        <v>254.838184631277</v>
       </c>
       <c r="X17" t="n">
         <v>275.3283165923331</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8351545699177</v>
+        <v>291.8351545699176</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.4291960958014</v>
+        <v>85.4291960958013</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249194</v>
+        <v>72.84403701249184</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207646</v>
+        <v>54.21268893207636</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043328</v>
+        <v>52.03117856043318</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679535</v>
+        <v>51.01826393679525</v>
       </c>
       <c r="G19" t="n">
-        <v>71.62302417289233</v>
+        <v>71.62302417289223</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818489</v>
+        <v>50.35223082818479</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702215</v>
+        <v>1.949636323702116</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530599</v>
+        <v>95.3662412453059</v>
       </c>
       <c r="T19" t="n">
-        <v>125.1461651900333</v>
+        <v>125.1461651900332</v>
       </c>
       <c r="U19" t="n">
         <v>191.8090541194769</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7348592376921</v>
+        <v>157.734859237692</v>
       </c>
       <c r="W19" t="n">
-        <v>192.1202142504551</v>
+        <v>192.120214250455</v>
       </c>
       <c r="X19" t="n">
         <v>131.3068713029012</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.1818692659589</v>
+        <v>124.1818692659588</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773446</v>
       </c>
       <c r="C20" t="n">
-        <v>224.9230016973057</v>
+        <v>270.8701076848715</v>
       </c>
       <c r="D20" t="n">
-        <v>260.280257534547</v>
+        <v>214.3331515469811</v>
       </c>
       <c r="E20" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861258</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555754</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5189415673175</v>
+        <v>316.5189415673174</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011845</v>
+        <v>200.2049803011844</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770203994</v>
+        <v>14.78497770203984</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534841</v>
       </c>
       <c r="U20" t="n">
-        <v>156.5923878727661</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V20" t="n">
-        <v>233.349474383999</v>
+        <v>233.3494743839989</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312771</v>
+        <v>254.838184631277</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923331</v>
+        <v>275.328316592333</v>
       </c>
       <c r="Y20" t="n">
-        <v>291.8351545699177</v>
+        <v>291.8351545699176</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.4291960958014</v>
+        <v>85.42919609580129</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249194</v>
+        <v>72.84403701249182</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207646</v>
+        <v>54.21268893207635</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043328</v>
+        <v>52.03117856043316</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679535</v>
+        <v>51.01826393679524</v>
       </c>
       <c r="G22" t="n">
-        <v>71.62302417289233</v>
+        <v>71.62302417289222</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818489</v>
+        <v>50.35223082818477</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702201</v>
+        <v>1.949636323702101</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530599</v>
+        <v>95.36624124530587</v>
       </c>
       <c r="T22" t="n">
-        <v>125.1461651900333</v>
+        <v>125.1461651900332</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8090541194769</v>
+        <v>191.8090541194768</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7348592376921</v>
+        <v>157.734859237692</v>
       </c>
       <c r="W22" t="n">
-        <v>192.1202142504551</v>
+        <v>192.120214250455</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029011</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.1818692659589</v>
+        <v>124.1818692659588</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773446</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848716</v>
+        <v>270.8701076848715</v>
       </c>
       <c r="D23" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345469</v>
       </c>
       <c r="E23" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861258</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555754</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673175</v>
+        <v>316.5189415673174</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011845</v>
+        <v>200.2049803011844</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770203995</v>
+        <v>14.78497770203984</v>
       </c>
       <c r="T23" t="n">
-        <v>63.56808006591834</v>
+        <v>63.56808006591778</v>
       </c>
       <c r="U23" t="n">
-        <v>156.5923878727661</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V23" t="n">
-        <v>233.349474383999</v>
+        <v>233.3494743839989</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8381846312771</v>
+        <v>254.838184631277</v>
       </c>
       <c r="X23" t="n">
-        <v>275.3283165923331</v>
+        <v>275.328316592333</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8351545699177</v>
+        <v>291.8351545699176</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2403,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804553998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.4291960958014</v>
+        <v>85.42919609580129</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249194</v>
+        <v>72.84403701249182</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207646</v>
+        <v>54.21268893207635</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043328</v>
+        <v>52.03117856043316</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679535</v>
+        <v>51.01826393679524</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289233</v>
+        <v>71.62302417289222</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818489</v>
+        <v>50.35223082818477</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702215</v>
+        <v>1.949636323702101</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530599</v>
+        <v>95.36624124530587</v>
       </c>
       <c r="T25" t="n">
-        <v>125.1461651900333</v>
+        <v>125.1461651900332</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8090541194769</v>
+        <v>191.8090541194768</v>
       </c>
       <c r="V25" t="n">
-        <v>157.7348592376921</v>
+        <v>157.734859237692</v>
       </c>
       <c r="W25" t="n">
-        <v>192.1202142504551</v>
+        <v>192.120214250455</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029011</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.1818692659589</v>
+        <v>124.1818692659588</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959373</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>317.8452443034641</v>
       </c>
       <c r="D26" t="n">
-        <v>307.2553941531397</v>
+        <v>307.2553941531396</v>
       </c>
       <c r="E26" t="n">
-        <v>334.5027226047185</v>
+        <v>292.0174483562911</v>
       </c>
       <c r="F26" t="n">
         <v>359.4483982741681</v>
       </c>
       <c r="G26" t="n">
-        <v>363.4940781859102</v>
+        <v>363.4940781859101</v>
       </c>
       <c r="H26" t="n">
         <v>247.1801169197771</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>36.0641871396696</v>
+        <v>61.76011432063247</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>203.5675244913586</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025916</v>
+        <v>280.3246110025915</v>
       </c>
       <c r="W26" t="n">
         <v>301.8133212498697</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109257</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.404332714394</v>
+        <v>132.4043327143939</v>
       </c>
       <c r="C28" t="n">
         <v>119.8191736310845</v>
@@ -2719,19 +2719,19 @@
         <v>101.187825550669</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902585</v>
+        <v>99.00631517902579</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538792</v>
+        <v>97.99340055538786</v>
       </c>
       <c r="G28" t="n">
-        <v>118.5981607914849</v>
+        <v>118.5981607914848</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677746</v>
+        <v>97.3273674467774</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229479</v>
+        <v>48.92477294229473</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250402</v>
+        <v>41.50450520250396</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638986</v>
+        <v>142.3413778638985</v>
       </c>
       <c r="T28" t="n">
-        <v>172.1213018086259</v>
+        <v>172.1213018086258</v>
       </c>
       <c r="U28" t="n">
         <v>238.7841907380695</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562847</v>
+        <v>204.7099958562846</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690477</v>
+        <v>239.0953508690476</v>
       </c>
       <c r="X28" t="n">
         <v>178.2820079214938</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845515</v>
+        <v>171.1570058845514</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959373</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C29" t="n">
-        <v>317.8452443034643</v>
+        <v>317.8452443034641</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531397</v>
+        <v>307.2553941531396</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047185</v>
+        <v>241.577899062542</v>
       </c>
       <c r="F29" t="n">
         <v>359.4483982741681</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859102</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>183.9635564379419</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063252</v>
+        <v>61.76011432063247</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>203.5675244913586</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.3246110025915</v>
       </c>
       <c r="W29" t="n">
         <v>301.8133212498697</v>
@@ -2858,7 +2858,7 @@
         <v>322.3034532109257</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885103</v>
+        <v>338.8102911885102</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.404332714394</v>
+        <v>132.4043327143939</v>
       </c>
       <c r="C31" t="n">
         <v>119.8191736310845</v>
@@ -2956,19 +2956,19 @@
         <v>101.187825550669</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902586</v>
+        <v>99.00631517902579</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538794</v>
+        <v>97.99340055538786</v>
       </c>
       <c r="G31" t="n">
-        <v>118.5981607914849</v>
+        <v>118.5981607914848</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677747</v>
+        <v>97.3273674467774</v>
       </c>
       <c r="I31" t="n">
-        <v>48.9247729422948</v>
+        <v>48.92477294229473</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250405</v>
+        <v>41.50450520250396</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3413778638986</v>
+        <v>142.3413778638985</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1213018086259</v>
+        <v>172.1213018086258</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7099958562847</v>
+        <v>204.7099958562846</v>
       </c>
       <c r="W31" t="n">
-        <v>239.0953508690477</v>
+        <v>239.0953508690476</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1570058845515</v>
+        <v>171.1570058845514</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F32" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G32" t="n">
         <v>313.2370054253485</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U32" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V32" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W32" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X32" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247628</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U34" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V34" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W34" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X34" t="n">
         <v>128.0249351609322</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3399,7 +3399,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7871683969275</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333689</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893049</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592154</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279485</v>
@@ -3834,7 +3834,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247745</v>
@@ -3876,7 +3876,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730796</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646375</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1386.143792573978</v>
+        <v>1644.057218491952</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.143792573978</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2699.318846352812</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2393.999824030771</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2067.983698717765</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1725.293999690027</v>
+        <v>1983.207425608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052943</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>434.849232726878</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328083</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
         <v>771.697886033711</v>
@@ -5227,7 +5227,7 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
         <v>1696.750338179562</v>
@@ -5236,13 +5236,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>990.5514538055349</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3104.236671416635</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2820.623417021138</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2687.178566565739</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.162441252732</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2018.472742224994</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5416,43 +5416,43 @@
         <v>637.9796998254603</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611978</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E16" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F16" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657644</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1684.621236373652</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119257</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827667</v>
+        <v>857.6738109135085</v>
       </c>
       <c r="F17" t="n">
-        <v>588.4554718549126</v>
+        <v>542.0442536856544</v>
       </c>
       <c r="G17" t="n">
-        <v>268.7393692616628</v>
+        <v>268.7393692616627</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5543,22 +5543,22 @@
         <v>3310.671500698019</v>
       </c>
       <c r="T17" t="n">
-        <v>3200.050100643994</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U17" t="n">
-        <v>3041.875971479584</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V17" t="n">
         <v>2806.169431697767</v>
       </c>
       <c r="W17" t="n">
-        <v>2548.757123989406</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X17" t="n">
-        <v>2270.647713290079</v>
+        <v>2270.647713290081</v>
       </c>
       <c r="Y17" t="n">
-        <v>1975.864728876021</v>
+        <v>1975.864728876023</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064548</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095334</v>
+        <v>424.1192475095327</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433799</v>
+        <v>350.5394121433793</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927976</v>
+        <v>295.7791202927971</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721579</v>
+        <v>243.2223742721575</v>
       </c>
       <c r="F19" t="n">
-        <v>191.688774336001</v>
+        <v>191.6887743360007</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724734</v>
+        <v>119.3422852724732</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208465</v>
+        <v>68.48144605208455</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148974</v>
+        <v>171.7936262148975</v>
       </c>
       <c r="K19" t="n">
-        <v>363.5632367278422</v>
+        <v>363.5632367278424</v>
       </c>
       <c r="L19" t="n">
-        <v>612.731836895474</v>
+        <v>612.7318368954743</v>
       </c>
       <c r="M19" t="n">
-        <v>873.6230744399463</v>
+        <v>780.1643181946721</v>
       </c>
       <c r="N19" t="n">
-        <v>1138.390667715068</v>
+        <v>1044.931911469794</v>
       </c>
       <c r="O19" t="n">
-        <v>1369.767773178532</v>
+        <v>1234.150878904366</v>
       </c>
       <c r="P19" t="n">
-        <v>1525.435319249604</v>
+        <v>1426.5606379024</v>
       </c>
       <c r="Q19" t="n">
-        <v>1538.356086608145</v>
+        <v>1532.940161506215</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608145</v>
+        <v>1538.356086608143</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996724</v>
+        <v>1442.026549996723</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128004</v>
+        <v>1315.616282128002</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.869762815401</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712675</v>
+        <v>962.5416221712662</v>
       </c>
       <c r="W19" t="n">
-        <v>768.4807996960603</v>
+        <v>768.4807996960592</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597964</v>
+        <v>635.8475963597954</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780197</v>
+        <v>510.4113647780188</v>
       </c>
     </row>
     <row r="20">
@@ -5729,61 +5729,61 @@
         <v>1684.621236373654</v>
       </c>
       <c r="C20" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D20" t="n">
         <v>1194.516934119258</v>
       </c>
       <c r="E20" t="n">
-        <v>904.0850290827669</v>
+        <v>904.0850290827671</v>
       </c>
       <c r="F20" t="n">
-        <v>588.4554718549128</v>
+        <v>588.4554718549131</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616628</v>
+        <v>268.7393692616627</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.67150069802</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T20" t="n">
         <v>3200.050100643995</v>
       </c>
       <c r="U20" t="n">
-        <v>3041.875971479586</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V20" t="n">
         <v>2806.169431697768</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095334</v>
+        <v>424.1192475095326</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433799</v>
+        <v>350.5394121433792</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927976</v>
+        <v>295.779120292797</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721579</v>
+        <v>243.2223742721575</v>
       </c>
       <c r="F22" t="n">
-        <v>191.688774336001</v>
+        <v>191.6887743360007</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724734</v>
+        <v>119.3422852724732</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208465</v>
+        <v>68.48144605208454</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7936262148974</v>
+        <v>171.7936262148975</v>
       </c>
       <c r="K22" t="n">
-        <v>363.5632367278423</v>
+        <v>363.5632367278424</v>
       </c>
       <c r="L22" t="n">
-        <v>575.9896239685119</v>
+        <v>612.7318368954743</v>
       </c>
       <c r="M22" t="n">
-        <v>836.8808615129842</v>
+        <v>873.6230744399468</v>
       </c>
       <c r="N22" t="n">
-        <v>1008.189698542832</v>
+        <v>1096.232529686177</v>
       </c>
       <c r="O22" t="n">
-        <v>1239.566804006296</v>
+        <v>1327.609635149641</v>
       </c>
       <c r="P22" t="n">
-        <v>1431.976563004329</v>
+        <v>1426.5606379024</v>
       </c>
       <c r="Q22" t="n">
-        <v>1538.356086608145</v>
+        <v>1532.940161506215</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608145</v>
+        <v>1538.356086608143</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996724</v>
+        <v>1442.026549996723</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128004</v>
+        <v>1315.616282128002</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.869762815401</v>
+        <v>1121.869762815399</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712675</v>
+        <v>962.541622171266</v>
       </c>
       <c r="W22" t="n">
-        <v>768.4807996960603</v>
+        <v>768.480799696059</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597964</v>
+        <v>635.8475963597953</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780197</v>
+        <v>510.4113647780187</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.032454542913</v>
+        <v>1731.032454542912</v>
       </c>
       <c r="C23" t="n">
-        <v>1457.426285164255</v>
+        <v>1457.426285164254</v>
       </c>
       <c r="D23" t="n">
         <v>1194.516934119257</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827671</v>
+        <v>904.0850290827669</v>
       </c>
       <c r="F23" t="n">
         <v>588.455471854913</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616628</v>
+        <v>268.7393692616626</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218508</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810568</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.67150069802</v>
+        <v>3310.671500698018</v>
       </c>
       <c r="T23" t="n">
-        <v>3246.461318813254</v>
+        <v>3246.461318813253</v>
       </c>
       <c r="U23" t="n">
-        <v>3088.287189648844</v>
+        <v>3088.287189648843</v>
       </c>
       <c r="V23" t="n">
-        <v>2852.580649867026</v>
+        <v>2852.580649867025</v>
       </c>
       <c r="W23" t="n">
-        <v>2595.168342158666</v>
+        <v>2595.168342158665</v>
       </c>
       <c r="X23" t="n">
-        <v>2317.05893145934</v>
+        <v>2317.058931459339</v>
       </c>
       <c r="Y23" t="n">
-        <v>2022.275947045282</v>
+        <v>2022.27594704528</v>
       </c>
     </row>
     <row r="24">
@@ -6051,19 +6051,19 @@
         <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095334</v>
+        <v>424.1192475095326</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433799</v>
+        <v>350.5394121433792</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927976</v>
+        <v>295.779120292797</v>
       </c>
       <c r="E25" t="n">
-        <v>243.222374272158</v>
+        <v>243.2223742721575</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360011</v>
+        <v>191.6887743360007</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724734</v>
+        <v>119.3422852724732</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208466</v>
+        <v>68.48144605208451</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>171.7936262148974</v>
+        <v>171.7936262148975</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5632367278423</v>
+        <v>321.4050986989502</v>
       </c>
       <c r="L25" t="n">
-        <v>612.731836895474</v>
+        <v>570.573698866582</v>
       </c>
       <c r="M25" t="n">
-        <v>873.6230744399463</v>
+        <v>738.0061801657798</v>
       </c>
       <c r="N25" t="n">
-        <v>1138.390667715068</v>
+        <v>1002.773773440902</v>
       </c>
       <c r="O25" t="n">
-        <v>1333.025560251571</v>
+        <v>1234.150878904366</v>
       </c>
       <c r="P25" t="n">
-        <v>1525.435319249604</v>
+        <v>1426.5606379024</v>
       </c>
       <c r="Q25" t="n">
-        <v>1538.356086608145</v>
+        <v>1532.940161506215</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608145</v>
+        <v>1538.356086608143</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996724</v>
+        <v>1442.026549996723</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128004</v>
+        <v>1315.616282128002</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.869762815401</v>
+        <v>1121.869762815399</v>
       </c>
       <c r="V25" t="n">
-        <v>962.5416221712675</v>
+        <v>962.541622171266</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960603</v>
+        <v>768.480799696059</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597964</v>
+        <v>635.8475963597953</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780197</v>
+        <v>510.4113647780187</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1694.674449904621</v>
+        <v>1972.815833798598</v>
       </c>
       <c r="C26" t="n">
-        <v>1694.674449904621</v>
+        <v>1651.760031471866</v>
       </c>
       <c r="D26" t="n">
-        <v>1384.315465911551</v>
+        <v>1341.401047478796</v>
       </c>
       <c r="E26" t="n">
         <v>1046.433927926987</v>
       </c>
       <c r="F26" t="n">
-        <v>683.3547377510595</v>
+        <v>683.3547377510591</v>
       </c>
       <c r="G26" t="n">
-        <v>316.1890022097361</v>
+        <v>316.189002209736</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,40 +6236,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3289.177349750919</v>
+        <v>3263.221867749945</v>
       </c>
       <c r="T26" t="n">
-        <v>3289.177349750919</v>
+        <v>3105.150834747847</v>
       </c>
       <c r="U26" t="n">
-        <v>3289.177349750919</v>
+        <v>2899.527072635364</v>
       </c>
       <c r="V26" t="n">
-        <v>3006.021177021029</v>
+        <v>2616.370899905473</v>
       </c>
       <c r="W26" t="n">
-        <v>2701.159236364594</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X26" t="n">
-        <v>2375.600192717195</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="Y26" t="n">
-        <v>2033.367575355063</v>
+        <v>2311.508959249039</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6327,28 +6327,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460466</v>
+        <v>756.266678146046</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318198</v>
+        <v>635.2372098318193</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331642</v>
+        <v>533.0272850331638</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644512</v>
+        <v>433.0209060644509</v>
       </c>
       <c r="F28" t="n">
-        <v>334.037673180221</v>
+        <v>334.0376731802207</v>
       </c>
       <c r="G28" t="n">
-        <v>214.24155116862</v>
+        <v>214.2415511686199</v>
       </c>
       <c r="H28" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>147.6909272985876</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K28" t="n">
-        <v>398.6314812403318</v>
+        <v>398.6314812403306</v>
       </c>
       <c r="L28" t="n">
-        <v>762.1446506816958</v>
+        <v>762.1446506816947</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.255067274113</v>
+        <v>1153.255067274112</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972845</v>
+        <v>1541.616814972844</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.899784886126</v>
+        <v>1887.899784886125</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312654</v>
+        <v>2167.460656312653</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458036</v>
+        <v>2292.024323458035</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829244</v>
+        <v>2250.100580829243</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269751</v>
+        <v>2106.32141126975</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452957</v>
+        <v>1932.461510452956</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192281</v>
+        <v>1691.26535819228</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600074</v>
+        <v>1484.487584600073</v>
       </c>
       <c r="W28" t="n">
         <v>1242.977129176793</v>
       </c>
       <c r="X28" t="n">
-        <v>1062.894292892456</v>
+        <v>1062.894292892455</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626062</v>
+        <v>890.0084283626056</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1951.87514063354</v>
+        <v>1305.024172789067</v>
       </c>
       <c r="C29" t="n">
-        <v>1630.819338306809</v>
+        <v>983.9683704623351</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.460354313738</v>
+        <v>673.6093864692648</v>
       </c>
       <c r="E29" t="n">
-        <v>982.5788163291741</v>
+        <v>429.5913066081108</v>
       </c>
       <c r="F29" t="n">
-        <v>619.4996261532465</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G29" t="n">
-        <v>252.3338906119228</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810568</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3263.221867749947</v>
+        <v>3263.221867749945</v>
       </c>
       <c r="T29" t="n">
-        <v>3263.221867749947</v>
+        <v>3105.150834747847</v>
       </c>
       <c r="U29" t="n">
-        <v>3263.221867749947</v>
+        <v>2899.527072635364</v>
       </c>
       <c r="V29" t="n">
-        <v>3263.221867749947</v>
+        <v>2616.370899905473</v>
       </c>
       <c r="W29" t="n">
-        <v>2958.359927093513</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X29" t="n">
-        <v>2632.800883446113</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y29" t="n">
-        <v>2290.568266083982</v>
+        <v>1643.717298239508</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460467</v>
+        <v>756.266678146046</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318199</v>
+        <v>635.2372098318193</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331643</v>
+        <v>533.0272850331638</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644513</v>
+        <v>433.0209060644509</v>
       </c>
       <c r="F31" t="n">
-        <v>334.037673180221</v>
+        <v>334.0376731802207</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686201</v>
+        <v>214.2415511686199</v>
       </c>
       <c r="H31" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
         <v>158.5881198719869</v>
@@ -6625,46 +6625,46 @@
         <v>409.5286738137311</v>
       </c>
       <c r="L31" t="n">
-        <v>773.041843255095</v>
+        <v>762.1446506816947</v>
       </c>
       <c r="M31" t="n">
-        <v>1164.152259847512</v>
+        <v>1153.255067274112</v>
       </c>
       <c r="N31" t="n">
-        <v>1552.514007546245</v>
+        <v>1541.616814972844</v>
       </c>
       <c r="O31" t="n">
-        <v>1887.899784886127</v>
+        <v>1887.899784886125</v>
       </c>
       <c r="P31" t="n">
-        <v>2167.460656312654</v>
+        <v>2167.460656312653</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458037</v>
+        <v>2292.024323458035</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829245</v>
+        <v>2250.100580829243</v>
       </c>
       <c r="S31" t="n">
-        <v>2106.321411269751</v>
+        <v>2106.32141126975</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.461510452957</v>
+        <v>1932.461510452956</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.265358192281</v>
+        <v>1691.26535819228</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.487584600074</v>
+        <v>1484.487584600073</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.894292892456</v>
+        <v>1062.894292892455</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626063</v>
+        <v>890.0084283626056</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C32" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D32" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E32" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F32" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218508</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810568</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T32" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U32" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V32" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W32" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X32" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y32" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G34" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K34" t="n">
-        <v>273.3535972631171</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L34" t="n">
-        <v>525.7713142112982</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M34" t="n">
-        <v>789.9116685363199</v>
+        <v>789.91166853632</v>
       </c>
       <c r="N34" t="n">
-        <v>1046.769673437847</v>
+        <v>961.2205055661675</v>
       </c>
       <c r="O34" t="n">
-        <v>1281.395895681861</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P34" t="n">
-        <v>1477.054771460443</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q34" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S34" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T34" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304668</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,25 +6935,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6965,22 +6965,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,22 +7032,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
@@ -7093,52 +7093,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954468</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>370.061470288941</v>
+        <v>262.1948921089721</v>
       </c>
       <c r="L37" t="n">
-        <v>622.4791872371221</v>
+        <v>514.6126090571533</v>
       </c>
       <c r="M37" t="n">
-        <v>875.4608364079998</v>
+        <v>778.752963382175</v>
       </c>
       <c r="N37" t="n">
-        <v>1143.477546463671</v>
+        <v>1046.769673437846</v>
       </c>
       <c r="O37" t="n">
-        <v>1378.103768707685</v>
+        <v>1281.39589568186</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460443</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.357570643175</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,25 +7157,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,37 +7184,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668172</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515852</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746124</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
         <v>765.151745215813</v>
@@ -7278,22 +7278,22 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
         <v>1109.759191501176</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170924</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919198</v>
@@ -7324,58 +7324,58 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>163.884037841303</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>262.1948921089733</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L40" t="n">
-        <v>417.9047360313305</v>
+        <v>514.612609057153</v>
       </c>
       <c r="M40" t="n">
-        <v>682.0450903563521</v>
+        <v>682.0450903563508</v>
       </c>
       <c r="N40" t="n">
-        <v>950.0618004120234</v>
+        <v>950.0618004120222</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656037</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.346898434619</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304667</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673494</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431754</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734887</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218339</v>
@@ -7421,7 +7421,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
@@ -7430,7 +7430,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7442,16 +7442,16 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960651</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
@@ -7524,16 +7524,16 @@
         <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245363</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404821</v>
@@ -7567,52 +7567,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>175.0427429954468</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K43" t="n">
-        <v>370.0614702889411</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L43" t="n">
-        <v>525.7713142112983</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M43" t="n">
-        <v>693.2037955104961</v>
+        <v>789.9116685363202</v>
       </c>
       <c r="N43" t="n">
-        <v>950.0618004120222</v>
+        <v>1038.104631555368</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656036</v>
+        <v>1272.730853799381</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.346898434618</v>
+        <v>1468.389729577964</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U43" t="n">
         <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070898</v>
@@ -7634,7 +7634,7 @@
         <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7646,10 +7646,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,16 +7658,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7725,10 +7725,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7770,7 +7770,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404821</v>
@@ -7807,31 +7807,31 @@
         <v>175.0427429954468</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0614702889411</v>
+        <v>370.0614702889412</v>
       </c>
       <c r="L46" t="n">
-        <v>525.7713142112983</v>
+        <v>622.4791872371225</v>
       </c>
       <c r="M46" t="n">
-        <v>789.91166853632</v>
+        <v>866.7957945255205</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.928378591992</v>
+        <v>1134.812504581192</v>
       </c>
       <c r="O46" t="n">
-        <v>1292.554600836005</v>
+        <v>1272.730853799382</v>
       </c>
       <c r="P46" t="n">
-        <v>1391.505603588764</v>
+        <v>1468.389729577964</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363022</v>
@@ -7840,16 +7840,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
   </sheetData>
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.62897609706755</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>95.73650111899545</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10273,7 +10273,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>151.4674363158973</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -10282,7 +10282,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>152.034401140227</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2581575873708</v>
+        <v>15.25815758737082</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>123.0387407269841</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>83.92851037866947</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.68982634589818</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>170.1554301479756</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>45.94710598756773</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.94710598756683</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>45.94710598756593</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>45.94710598756581</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>45.94710598756593</v>
+        <v>45.94710598756638</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24443,13 +24443,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034643</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>42.48527424842732</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>25.69592718096293</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4903226720768</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913587</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>338.8102911885102</v>
       </c>
     </row>
     <row r="27">
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>92.9248235421764</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.4940781859101</v>
       </c>
       <c r="H29" t="n">
-        <v>63.21656048183522</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,13 +24731,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.4903226720769</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913587</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025916</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25451,7 +25451,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>3.126388037344441e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>702716.5640611541</v>
+        <v>702716.5640611543</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>703011.9097229684</v>
+        <v>703011.9097229682</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778553</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="C2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094828</v>
       </c>
       <c r="D2" t="n">
-        <v>696387.9041873956</v>
+        <v>696387.9041873951</v>
       </c>
       <c r="E2" t="n">
-        <v>649851.3584063661</v>
+        <v>649851.3584063668</v>
       </c>
       <c r="F2" t="n">
-        <v>649851.3584063664</v>
+        <v>649851.3584063665</v>
       </c>
       <c r="G2" t="n">
-        <v>694776.723193522</v>
+        <v>694776.7231935217</v>
       </c>
       <c r="H2" t="n">
-        <v>694776.7231935221</v>
+        <v>694776.7231935218</v>
       </c>
       <c r="I2" t="n">
-        <v>694776.7231935221</v>
+        <v>694776.7231935217</v>
       </c>
       <c r="J2" t="n">
-        <v>650279.9947829266</v>
+        <v>650279.9947829264</v>
       </c>
       <c r="K2" t="n">
-        <v>650279.9947829262</v>
+        <v>650279.9947829267</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846419</v>
+        <v>697885.5043846418</v>
       </c>
       <c r="M2" t="n">
         <v>697885.5043846419</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.504384642</v>
+        <v>697885.5043846419</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846417</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="P2" t="n">
         <v>697885.5043846418</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971251896</v>
+        <v>9496.994971249502</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265974</v>
+        <v>1152439.021265977</v>
       </c>
       <c r="F3" t="n">
-        <v>5.223239440965699e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.1179740345</v>
+        <v>37942.11797403458</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248398</v>
+        <v>78147.77618248406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920728</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586364</v>
+        <v>463750.8212586374</v>
       </c>
       <c r="E4" t="n">
-        <v>62485.16516868471</v>
+        <v>62485.16516868465</v>
       </c>
       <c r="F4" t="n">
-        <v>62485.16516868469</v>
+        <v>62485.16516868467</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.70120662289</v>
+        <v>91701.70120662297</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.70120662285</v>
+        <v>91701.70120662292</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662297</v>
+        <v>91701.70120662298</v>
       </c>
       <c r="J4" t="n">
-        <v>62762.98823905153</v>
+        <v>62762.98823905154</v>
       </c>
       <c r="K4" t="n">
-        <v>62762.98823905153</v>
+        <v>62762.98823905151</v>
       </c>
       <c r="L4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="M4" t="n">
+        <v>93774.137826577</v>
+      </c>
+      <c r="N4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="O4" t="n">
         <v>93774.13782657712</v>
       </c>
-      <c r="M4" t="n">
-        <v>93774.13782657703</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657697</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93774.13782657705</v>
-      </c>
       <c r="P4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657715</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26473,37 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328356</v>
+        <v>33869.3458032835</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="H5" t="n">
         <v>82242.68821673066</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.68821673065</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.5354563422</v>
+        <v>78293.53545634219</v>
       </c>
       <c r="K5" t="n">
-        <v>78293.5354563422</v>
+        <v>78293.53545634219</v>
       </c>
       <c r="L5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
-      <c r="M5" t="n">
-        <v>82518.59730624984</v>
-      </c>
       <c r="N5" t="n">
-        <v>82518.59730624981</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195141.3279777514</v>
+        <v>195136.9143998834</v>
       </c>
       <c r="C6" t="n">
-        <v>195141.3279777514</v>
+        <v>195136.9143998835</v>
       </c>
       <c r="D6" t="n">
-        <v>189270.7421542237</v>
+        <v>189266.3374477622</v>
       </c>
       <c r="E6" t="n">
-        <v>-643328.3213500746</v>
+        <v>-643469.5982500131</v>
       </c>
       <c r="F6" t="n">
-        <v>509110.6999158995</v>
+        <v>508969.4230159643</v>
       </c>
       <c r="G6" t="n">
-        <v>482890.2157961339</v>
+        <v>482881.0723220419</v>
       </c>
       <c r="H6" t="n">
-        <v>520832.3337701685</v>
+        <v>520823.1902960768</v>
       </c>
       <c r="I6" t="n">
-        <v>520832.3337701685</v>
+        <v>520823.1902960765</v>
       </c>
       <c r="J6" t="n">
-        <v>509223.4710875329</v>
+        <v>509083.4548828218</v>
       </c>
       <c r="K6" t="n">
-        <v>509223.4710875324</v>
+        <v>509083.4548828221</v>
       </c>
       <c r="L6" t="n">
-        <v>443444.993069331</v>
+        <v>443444.9930693308</v>
       </c>
       <c r="M6" t="n">
         <v>314404.2009597421</v>
       </c>
       <c r="N6" t="n">
-        <v>521592.7692518153</v>
+        <v>521592.769251815</v>
       </c>
       <c r="O6" t="n">
+        <v>521592.7692518146</v>
+      </c>
+      <c r="P6" t="n">
         <v>521592.7692518148</v>
-      </c>
-      <c r="P6" t="n">
-        <v>521592.7692518149</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="F2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859256</v>
-      </c>
       <c r="G2" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="H2" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="I2" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135621</v>
+        <v>11.08925703135341</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022924</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135621</v>
+        <v>11.08925703135341</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561942</v>
+        <v>1078.687443561945</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-7.626531502969434e-14</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305516</v>
+        <v>339.0182479305517</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052748</v>
+        <v>208.7572219052753</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826056</v>
+        <v>177.2622388826066</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586393</v>
+        <v>214.4191170586408</v>
       </c>
       <c r="L8" t="n">
-        <v>228.731368019331</v>
+        <v>228.7313680193328</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862391</v>
+        <v>222.518387986241</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556357971</v>
+        <v>221.4585556357991</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951175986</v>
+        <v>222.5869951176005</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178612</v>
+        <v>224.8223464178629</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592000983</v>
+        <v>217.4915592000995</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267113</v>
+        <v>212.785193926712</v>
       </c>
       <c r="S8" t="n">
-        <v>208.0042044823176</v>
+        <v>208.0042044823178</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27947,40 +27947,40 @@
         <v>137.31966479903</v>
       </c>
       <c r="H9" t="n">
-        <v>112.0050806140149</v>
+        <v>112.005080614015</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588541</v>
+        <v>98.70114728588561</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297568</v>
+        <v>124.5841013297574</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373454</v>
+        <v>133.9898052373464</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993337</v>
+        <v>133.375382899335</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399292</v>
+        <v>136.0903888399307</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993485</v>
+        <v>125.13810969935</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602351994</v>
+        <v>136.9211602352008</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121492</v>
+        <v>129.4196520121504</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214876</v>
+        <v>136.9370407214884</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721161</v>
+        <v>144.1985650721164</v>
       </c>
       <c r="S9" t="n">
-        <v>171.2401239007454</v>
+        <v>171.2401239007455</v>
       </c>
       <c r="T9" t="n">
         <v>200.0685869286724</v>
@@ -28026,40 +28026,40 @@
         <v>167.9709823375825</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0493808127401</v>
+        <v>162.0493808127402</v>
       </c>
       <c r="I10" t="n">
-        <v>154.8491099721808</v>
+        <v>154.8491099721809</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634476</v>
+        <v>125.581632063448</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269168</v>
+        <v>126.6899679269174</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502416</v>
+        <v>131.9116646502423</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297087</v>
+        <v>135.7911600297095</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978755</v>
+        <v>124.6254548978763</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465391</v>
+        <v>135.6300504465398</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697187</v>
+        <v>135.3094552697193</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177111</v>
+        <v>149.8305238177115</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021353</v>
+        <v>176.3942526021355</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004295</v>
+        <v>223.6681045004296</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="C17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="D17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="E17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="F17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="G17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="H17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="T17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="U17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="V17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="W17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="X17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="C19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="D19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="E19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="F19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="G19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="H19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="I19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="J19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="K19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="L19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="M19" t="n">
-        <v>94.4027840861359</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="O19" t="n">
-        <v>94.4027840861359</v>
+        <v>51.81880627917434</v>
       </c>
       <c r="P19" t="n">
-        <v>57.28943769526529</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="S19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="T19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="U19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="V19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="W19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="X19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613599</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="C20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="D20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="E20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="F20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="G20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="H20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="T20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="U20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="V20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="W20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="X20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="C22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="D22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="E22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="F22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="G22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="H22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="I22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="J22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="K22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="L22" t="n">
-        <v>57.28943769526495</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="M22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>51.81880627917408</v>
       </c>
       <c r="O22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="P22" t="n">
-        <v>94.4027840861359</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="S22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="T22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="U22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="V22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="W22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="X22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="C23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="D23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="E23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="F23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="G23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="H23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292764</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="T23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="U23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="V23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="W23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="X23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
     </row>
     <row r="24">
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="C25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="D25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="E25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="F25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="G25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="H25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="I25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="J25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="K25" t="n">
-        <v>94.4027840861359</v>
+        <v>51.81880627917411</v>
       </c>
       <c r="L25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="M25" t="n">
-        <v>94.4027840861359</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="O25" t="n">
-        <v>57.28943769526529</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="P25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="S25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="T25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="U25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="V25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="W25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="X25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.4027840861359</v>
+        <v>94.40278408613601</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29311,7 +29311,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754332</v>
+        <v>47.42764746754338</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29509,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754338</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292764</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.161737372967764e-12</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="L34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M34" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>86.41330088048483</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.41330088048365</v>
       </c>
       <c r="R34" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="36">
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810495</v>
+        <v>86.41330088048372</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M37" t="n">
-        <v>86.41330088048471</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>86.41330088048504</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>86.41330088048349</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R40" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="N43" t="n">
-        <v>86.41330088048346</v>
+        <v>77.66073332242416</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="45">
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242451</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.41330088048342</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776424603</v>
+        <v>0.0445799277642348</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852155848</v>
+        <v>0.4565541852154697</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665131097</v>
+        <v>1.718667665130664</v>
       </c>
       <c r="J8" t="n">
-        <v>3.78366564408068</v>
+        <v>3.783665644079726</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986341215</v>
+        <v>5.670733986339786</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950656262</v>
+        <v>7.035046950654489</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241033671</v>
+        <v>7.827845241031699</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960793836</v>
+        <v>7.954507960791831</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304088114</v>
+        <v>7.511216304086221</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337408289</v>
+        <v>6.410649337406674</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674351227</v>
+        <v>4.814130674350014</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887420822</v>
+        <v>2.800343887420116</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927757</v>
+        <v>1.015865103927502</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879871</v>
+        <v>0.1951486337879379</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221139682</v>
+        <v>0.003566394221138783</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418065298</v>
+        <v>0.02385236418064697</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224815696</v>
+        <v>0.2303636224815115</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141145872</v>
+        <v>0.8212327141143804</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25352533690985</v>
+        <v>2.253525336909282</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8516337370136</v>
+        <v>3.851633737012629</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880540463</v>
+        <v>5.178996880539159</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082089133</v>
+        <v>6.04364508208761</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383984829</v>
+        <v>6.203602383983266</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209245097</v>
+        <v>5.675084209243667</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402181006</v>
+        <v>4.554755402179858</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364533879</v>
+        <v>3.044733364533111</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847911</v>
+        <v>1.480938891847538</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030923916</v>
+        <v>0.44304720309228</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614921087</v>
+        <v>0.09614176614918664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485569275</v>
+        <v>0.00156923448556888</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087621611</v>
+        <v>0.01999702087621107</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946994488</v>
+        <v>0.177791694699404</v>
       </c>
       <c r="I10" t="n">
-        <v>0.601364955077481</v>
+        <v>0.6013649550773296</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375948479</v>
+        <v>1.413789375948123</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243618562</v>
+        <v>2.323290243617977</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630996712</v>
+        <v>2.973011630995963</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917896312</v>
+        <v>3.134623917895523</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567357691</v>
+        <v>3.06008956735692</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005303711</v>
+        <v>2.826488005302999</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4185487794289</v>
+        <v>2.418548779428291</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734787</v>
+        <v>1.674477811734365</v>
       </c>
       <c r="R10" t="n">
-        <v>0.899138775034226</v>
+        <v>0.8991387750339994</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365427843</v>
+        <v>0.3484935365426965</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647110519</v>
+        <v>0.08544181647108365</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593248153</v>
+        <v>0.001090746593247878</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165873</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764788</v>
+        <v>106.3449593764789</v>
       </c>
       <c r="K19" t="n">
-        <v>193.7066772858029</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L19" t="n">
         <v>251.6854547147796</v>
       </c>
       <c r="M19" t="n">
-        <v>263.526502570174</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>267.4420134092142</v>
+        <v>267.4420134092143</v>
       </c>
       <c r="O19" t="n">
-        <v>233.7142479428932</v>
+        <v>191.1302701359316</v>
       </c>
       <c r="P19" t="n">
-        <v>157.2399455263346</v>
+        <v>194.3532919172053</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>107.4540642462782</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.470631416088651</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764788</v>
+        <v>106.3449593764789</v>
       </c>
       <c r="K22" t="n">
-        <v>193.7066772858029</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L22" t="n">
-        <v>214.5721083239087</v>
+        <v>251.6854547147797</v>
       </c>
       <c r="M22" t="n">
-        <v>263.5265025701741</v>
+        <v>263.5265025701742</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>224.8580356022523</v>
       </c>
       <c r="O22" t="n">
-        <v>233.7142479428932</v>
+        <v>233.7142479428933</v>
       </c>
       <c r="P22" t="n">
-        <v>194.3532919172052</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.4540642462781</v>
+        <v>107.4540642462782</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.470631416088665</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.665110249458013e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>190.7870009687125</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.3449593764788</v>
+        <v>106.3449593764789</v>
       </c>
       <c r="K25" t="n">
-        <v>193.7066772858029</v>
+        <v>151.1226994788411</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147797</v>
       </c>
       <c r="M25" t="n">
-        <v>263.526502570174</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>267.4420134092142</v>
+        <v>267.4420134092143</v>
       </c>
       <c r="O25" t="n">
-        <v>196.6009015520225</v>
+        <v>233.7142479428933</v>
       </c>
       <c r="P25" t="n">
-        <v>194.3532919172052</v>
+        <v>194.3532919172053</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014217</v>
+        <v>107.4540642462782</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.470631416088665</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882205</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.99879885495372</v>
+        <v>93.00606408060958</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118628</v>
+        <v>242.4680417862058</v>
       </c>
       <c r="L28" t="n">
         <v>367.1850196377414</v>
@@ -36771,7 +36771,7 @@
         <v>282.3847186126537</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.8218860054369</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687142</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060951</v>
+        <v>93.00606408060958</v>
       </c>
       <c r="K31" t="n">
-        <v>253.4753070118628</v>
+        <v>253.4753070118629</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377414</v>
+        <v>356.1777544120844</v>
       </c>
       <c r="M31" t="n">
         <v>395.0610268610271</v>
@@ -37002,13 +37002,13 @@
         <v>392.2845936350834</v>
       </c>
       <c r="O31" t="n">
-        <v>338.7735124645275</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P31" t="n">
         <v>282.3847186126537</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.8218860054369</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.665110249458013e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K34" t="n">
         <v>196.988613427772</v>
@@ -37233,19 +37233,19 @@
         <v>254.9673908567486</v>
       </c>
       <c r="M34" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4525302035631</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O34" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.05128016014217</v>
+        <v>99.46458104062582</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>185.7171940801508</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>255.5370193645228</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193706</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>98.3554761708279</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286436</v>
+        <v>243.6959715091271</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37935,31 +37935,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N43" t="n">
-        <v>259.4525302035617</v>
+        <v>250.6999626455024</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882472</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38175,28 +38175,28 @@
         <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>246.7844518064626</v>
       </c>
       <c r="N46" t="n">
         <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.46458104062559</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
